--- a/medicine/Soins infirmiers et profession infirmière/1747_en_santé_et_médecine/1747_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1747_en_santé_et_médecine/1747_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1747_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1747_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1747 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1747_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1747_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1er janvier : Ordonnance du roi, portant règlement général concernant les hôpitaux militaires — Ordonnance de Louis XV.
-31 janvier : S'ouvre au London Lock Hospital (en) la première clinique pour les maladies vénériennes[1],[2].
-James Lind entreprend la première expérience témoin en médecine clinique, sur l'efficacité des agrumes pour traiter le scorbut[3]. Il attribue toutefois le scorbut, non à une carence, mais à l'humidité excessive[4].</t>
+31 janvier : S'ouvre au London Lock Hospital (en) la première clinique pour les maladies vénériennes,.
+James Lind entreprend la première expérience témoin en médecine clinique, sur l'efficacité des agrumes pour traiter le scorbut. Il attribue toutefois le scorbut, non à une carence, mais à l'humidité excessive.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1747_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1747_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michael Alberti, Specimen inaugurale medico-politicum, de crimine stellionatus medici, Magdebourg.
 Bernhard Siegfried Albinus, aidé du dessinateur Jan Wandelaar, décrit très exactement les os et les muscles du corps humain dans Tabulae sceleti et musculorum corporis humani.
@@ -553,7 +569,7 @@
 Élie Col de Villars : Dictionnaire françois-latin des termes de medecine et de chirurgie : avec leur définition, leur division, &amp; leur etymologie.
 Cornelius Albertus Kloekhof, Opuscula medica.
 Giovanni Maria Lancisi, Consulti medici, Venise.
-Jean Levesque de Burigny : Traité de Porphyre, touchant l'abstinence de la chair des animaux : avec la vie de Plotin, Paris, Bure l'Aîné — Plotin était un philosophe qui s'abstenait des remèdes venant des animaux[5]. Porphyre de Tyr était un philosophe végétarien, disciple de Plotin[5].
+Jean Levesque de Burigny : Traité de Porphyre, touchant l'abstinence de la chair des animaux : avec la vie de Plotin, Paris, Bure l'Aîné — Plotin était un philosophe qui s'abstenait des remèdes venant des animaux. Porphyre de Tyr était un philosophe végétarien, disciple de Plotin.
 Sauveur-François Morand et Claude-Joseph Geoffroy : Formules de pharmacie pour les hôpitaux militaires du roy : avec l'état des drogues simples qu'il faut approvisionner, &amp; des médicamens composez qui doivent se trouver continuellement, ou que l'on emploie journellement dans les apothicaireries de ces hôpitaux (OCLC 14306235).
 John Turberville Needham, Nouvelles découvertes faites avec le microscope, traduction française, Leyde (OCLC 43287333).
 Benoît Voysin, Le médecin familier et sincère, Turin et Genève, 2e  éd.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1747_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1747_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>17 janvier : Marcus Herz (mort en 1803), médecin allemand, auteur le plus probable de la Prière médicale ou Serment de Maïmonide, analogue du serment d'Hippocrate.
 4 mai : Philippe-Jean Pelletan (mort en 1829), médecin français.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1747_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1747_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,10 +635,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>7 mars : Nicolas Mahudel (né en 1673), jésuite et médecin français.
-25 avril : François Gigot de Lapeyronie (né en 1678), premier chirurgien et confident du roi Louis XV[6].
+25 avril : François Gigot de Lapeyronie (né en 1678), premier chirurgien et confident du roi Louis XV.
 24 novembre : Antonio Celestino Cocchi (it) (né en 1685), médecin, botaniste et écrivain.</t>
         </is>
       </c>
